--- a/openpyxl/example.xlsx
+++ b/openpyxl/example.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project-py\PythonLearinig\openpyxl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A868AB-DBD5-4760-8248-DBAA9D09D9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="96" windowWidth="9540" windowHeight="4512"/>
+    <workbookView xWindow="0" yWindow="708" windowWidth="14568" windowHeight="11412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -39,12 +45,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -53,6 +59,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,24 +90,27 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -386,21 +402,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>42099.565300925926</v>
+        <v>42099.565300925933</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -409,7 +425,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42099.153738425928</v>
       </c>
@@ -420,9 +436,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>42100.532534722224</v>
+        <v>42100.532534722217</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -431,7 +447,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42102.374803240738</v>
       </c>
@@ -442,7 +458,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42104.088194444441</v>
       </c>
@@ -453,9 +469,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>42104.757372685184</v>
+        <v>42104.757372685177</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -464,7 +480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42104.111643518518</v>
       </c>
@@ -476,31 +492,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>